--- a/app/postgres_data/daily/forecast_consumption/archiv/13_12_2022_forec_con.xlsx
+++ b/app/postgres_data/daily/forecast_consumption/archiv/13_12_2022_forec_con.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5581" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5485" uniqueCount="128">
   <si>
     <t>Datenkategorie: Prognostizierter Stromverbrauch</t>
   </si>
@@ -23,7 +23,7 @@
     <t>Zeitraum: 28.11.2022, 00:00 - 15.12.2022, 23:59</t>
   </si>
   <si>
-    <t>Stand: 13.12.2022, 13:19</t>
+    <t>Stand: 13.12.2022, 16:14</t>
   </si>
   <si>
     <t>(c) Bundesnetzagentur | SMARD.de</t>
@@ -26627,8 +26627,8 @@
       <c r="C1547" t="s">
         <v>15</v>
       </c>
-      <c r="D1547" t="s">
-        <v>126</v>
+      <c r="D1547" t="n" s="1">
+        <v>13508.5</v>
       </c>
       <c r="E1547" t="s">
         <v>126</v>
@@ -26644,8 +26644,8 @@
       <c r="C1548" t="s">
         <v>16</v>
       </c>
-      <c r="D1548" t="s">
-        <v>126</v>
+      <c r="D1548" t="n" s="1">
+        <v>13315.0</v>
       </c>
       <c r="E1548" t="s">
         <v>126</v>
@@ -26661,8 +26661,8 @@
       <c r="C1549" t="s">
         <v>17</v>
       </c>
-      <c r="D1549" t="s">
-        <v>126</v>
+      <c r="D1549" t="n" s="1">
+        <v>13258.75</v>
       </c>
       <c r="E1549" t="s">
         <v>126</v>
@@ -26678,8 +26678,8 @@
       <c r="C1550" t="s">
         <v>18</v>
       </c>
-      <c r="D1550" t="s">
-        <v>126</v>
+      <c r="D1550" t="n" s="1">
+        <v>13222.75</v>
       </c>
       <c r="E1550" t="s">
         <v>126</v>
@@ -26695,8 +26695,8 @@
       <c r="C1551" t="s">
         <v>19</v>
       </c>
-      <c r="D1551" t="s">
-        <v>126</v>
+      <c r="D1551" t="n" s="1">
+        <v>12920.0</v>
       </c>
       <c r="E1551" t="s">
         <v>126</v>
@@ -26712,8 +26712,8 @@
       <c r="C1552" t="s">
         <v>20</v>
       </c>
-      <c r="D1552" t="s">
-        <v>126</v>
+      <c r="D1552" t="n" s="1">
+        <v>12860.25</v>
       </c>
       <c r="E1552" t="s">
         <v>126</v>
@@ -26729,8 +26729,8 @@
       <c r="C1553" t="s">
         <v>21</v>
       </c>
-      <c r="D1553" t="s">
-        <v>126</v>
+      <c r="D1553" t="n" s="1">
+        <v>12790.25</v>
       </c>
       <c r="E1553" t="s">
         <v>126</v>
@@ -26746,8 +26746,8 @@
       <c r="C1554" t="s">
         <v>22</v>
       </c>
-      <c r="D1554" t="s">
-        <v>126</v>
+      <c r="D1554" t="n" s="1">
+        <v>12725.75</v>
       </c>
       <c r="E1554" t="s">
         <v>126</v>
@@ -26763,8 +26763,8 @@
       <c r="C1555" t="s">
         <v>23</v>
       </c>
-      <c r="D1555" t="s">
-        <v>126</v>
+      <c r="D1555" t="n" s="1">
+        <v>12744.0</v>
       </c>
       <c r="E1555" t="s">
         <v>126</v>
@@ -26780,8 +26780,8 @@
       <c r="C1556" t="s">
         <v>24</v>
       </c>
-      <c r="D1556" t="s">
-        <v>126</v>
+      <c r="D1556" t="n" s="1">
+        <v>12733.0</v>
       </c>
       <c r="E1556" t="s">
         <v>126</v>
@@ -26797,8 +26797,8 @@
       <c r="C1557" t="s">
         <v>25</v>
       </c>
-      <c r="D1557" t="s">
-        <v>126</v>
+      <c r="D1557" t="n" s="1">
+        <v>12801.5</v>
       </c>
       <c r="E1557" t="s">
         <v>126</v>
@@ -26814,8 +26814,8 @@
       <c r="C1558" t="s">
         <v>26</v>
       </c>
-      <c r="D1558" t="s">
-        <v>126</v>
+      <c r="D1558" t="n" s="1">
+        <v>12801.75</v>
       </c>
       <c r="E1558" t="s">
         <v>126</v>
@@ -26831,8 +26831,8 @@
       <c r="C1559" t="s">
         <v>27</v>
       </c>
-      <c r="D1559" t="s">
-        <v>126</v>
+      <c r="D1559" t="n" s="1">
+        <v>12872.5</v>
       </c>
       <c r="E1559" t="s">
         <v>126</v>
@@ -26848,8 +26848,8 @@
       <c r="C1560" t="s">
         <v>28</v>
       </c>
-      <c r="D1560" t="s">
-        <v>126</v>
+      <c r="D1560" t="n" s="1">
+        <v>12884.5</v>
       </c>
       <c r="E1560" t="s">
         <v>126</v>
@@ -26865,8 +26865,8 @@
       <c r="C1561" t="s">
         <v>29</v>
       </c>
-      <c r="D1561" t="s">
-        <v>126</v>
+      <c r="D1561" t="n" s="1">
+        <v>12893.75</v>
       </c>
       <c r="E1561" t="s">
         <v>126</v>
@@ -26882,8 +26882,8 @@
       <c r="C1562" t="s">
         <v>30</v>
       </c>
-      <c r="D1562" t="s">
-        <v>126</v>
+      <c r="D1562" t="n" s="1">
+        <v>12921.0</v>
       </c>
       <c r="E1562" t="s">
         <v>126</v>
@@ -26899,8 +26899,8 @@
       <c r="C1563" t="s">
         <v>31</v>
       </c>
-      <c r="D1563" t="s">
-        <v>126</v>
+      <c r="D1563" t="n" s="1">
+        <v>13110.0</v>
       </c>
       <c r="E1563" t="s">
         <v>126</v>
@@ -26916,8 +26916,8 @@
       <c r="C1564" t="s">
         <v>32</v>
       </c>
-      <c r="D1564" t="s">
-        <v>126</v>
+      <c r="D1564" t="n" s="1">
+        <v>13212.0</v>
       </c>
       <c r="E1564" t="s">
         <v>126</v>
@@ -26933,8 +26933,8 @@
       <c r="C1565" t="s">
         <v>33</v>
       </c>
-      <c r="D1565" t="s">
-        <v>126</v>
+      <c r="D1565" t="n" s="1">
+        <v>13284.5</v>
       </c>
       <c r="E1565" t="s">
         <v>126</v>
@@ -26950,8 +26950,8 @@
       <c r="C1566" t="s">
         <v>34</v>
       </c>
-      <c r="D1566" t="s">
-        <v>126</v>
+      <c r="D1566" t="n" s="1">
+        <v>13383.0</v>
       </c>
       <c r="E1566" t="s">
         <v>126</v>
@@ -26967,8 +26967,8 @@
       <c r="C1567" t="s">
         <v>35</v>
       </c>
-      <c r="D1567" t="s">
-        <v>126</v>
+      <c r="D1567" t="n" s="1">
+        <v>13760.75</v>
       </c>
       <c r="E1567" t="s">
         <v>126</v>
@@ -26984,8 +26984,8 @@
       <c r="C1568" t="s">
         <v>36</v>
       </c>
-      <c r="D1568" t="s">
-        <v>126</v>
+      <c r="D1568" t="n" s="1">
+        <v>13842.5</v>
       </c>
       <c r="E1568" t="s">
         <v>126</v>
@@ -27001,8 +27001,8 @@
       <c r="C1569" t="s">
         <v>37</v>
       </c>
-      <c r="D1569" t="s">
-        <v>126</v>
+      <c r="D1569" t="n" s="1">
+        <v>14113.25</v>
       </c>
       <c r="E1569" t="s">
         <v>126</v>
@@ -27018,8 +27018,8 @@
       <c r="C1570" t="s">
         <v>38</v>
       </c>
-      <c r="D1570" t="s">
-        <v>126</v>
+      <c r="D1570" t="n" s="1">
+        <v>14380.75</v>
       </c>
       <c r="E1570" t="s">
         <v>126</v>
@@ -27035,8 +27035,8 @@
       <c r="C1571" t="s">
         <v>39</v>
       </c>
-      <c r="D1571" t="s">
-        <v>126</v>
+      <c r="D1571" t="n" s="1">
+        <v>15087.75</v>
       </c>
       <c r="E1571" t="s">
         <v>126</v>
@@ -27052,8 +27052,8 @@
       <c r="C1572" t="s">
         <v>40</v>
       </c>
-      <c r="D1572" t="s">
-        <v>126</v>
+      <c r="D1572" t="n" s="1">
+        <v>15228.75</v>
       </c>
       <c r="E1572" t="s">
         <v>126</v>
@@ -27069,8 +27069,8 @@
       <c r="C1573" t="s">
         <v>41</v>
       </c>
-      <c r="D1573" t="s">
-        <v>126</v>
+      <c r="D1573" t="n" s="1">
+        <v>15528.0</v>
       </c>
       <c r="E1573" t="s">
         <v>126</v>
@@ -27086,8 +27086,8 @@
       <c r="C1574" t="s">
         <v>42</v>
       </c>
-      <c r="D1574" t="s">
-        <v>126</v>
+      <c r="D1574" t="n" s="1">
+        <v>15814.5</v>
       </c>
       <c r="E1574" t="s">
         <v>126</v>
@@ -27103,8 +27103,8 @@
       <c r="C1575" t="s">
         <v>43</v>
       </c>
-      <c r="D1575" t="s">
-        <v>126</v>
+      <c r="D1575" t="n" s="1">
+        <v>16233.75</v>
       </c>
       <c r="E1575" t="s">
         <v>126</v>
@@ -27120,8 +27120,8 @@
       <c r="C1576" t="s">
         <v>44</v>
       </c>
-      <c r="D1576" t="s">
-        <v>126</v>
+      <c r="D1576" t="n" s="1">
+        <v>16291.0</v>
       </c>
       <c r="E1576" t="s">
         <v>126</v>
@@ -27137,8 +27137,8 @@
       <c r="C1577" t="s">
         <v>45</v>
       </c>
-      <c r="D1577" t="s">
-        <v>126</v>
+      <c r="D1577" t="n" s="1">
+        <v>16541.5</v>
       </c>
       <c r="E1577" t="s">
         <v>126</v>
@@ -27154,8 +27154,8 @@
       <c r="C1578" t="s">
         <v>46</v>
       </c>
-      <c r="D1578" t="s">
-        <v>126</v>
+      <c r="D1578" t="n" s="1">
+        <v>16822.75</v>
       </c>
       <c r="E1578" t="s">
         <v>126</v>
@@ -27171,8 +27171,8 @@
       <c r="C1579" t="s">
         <v>47</v>
       </c>
-      <c r="D1579" t="s">
-        <v>126</v>
+      <c r="D1579" t="n" s="1">
+        <v>17113.25</v>
       </c>
       <c r="E1579" t="s">
         <v>126</v>
@@ -27188,8 +27188,8 @@
       <c r="C1580" t="s">
         <v>48</v>
       </c>
-      <c r="D1580" t="s">
-        <v>126</v>
+      <c r="D1580" t="n" s="1">
+        <v>17155.75</v>
       </c>
       <c r="E1580" t="s">
         <v>126</v>
@@ -27205,8 +27205,8 @@
       <c r="C1581" t="s">
         <v>49</v>
       </c>
-      <c r="D1581" t="s">
-        <v>126</v>
+      <c r="D1581" t="n" s="1">
+        <v>17250.0</v>
       </c>
       <c r="E1581" t="s">
         <v>126</v>
@@ -27222,8 +27222,8 @@
       <c r="C1582" t="s">
         <v>50</v>
       </c>
-      <c r="D1582" t="s">
-        <v>126</v>
+      <c r="D1582" t="n" s="1">
+        <v>17251.0</v>
       </c>
       <c r="E1582" t="s">
         <v>126</v>
@@ -27239,8 +27239,8 @@
       <c r="C1583" t="s">
         <v>51</v>
       </c>
-      <c r="D1583" t="s">
-        <v>126</v>
+      <c r="D1583" t="n" s="1">
+        <v>17322.0</v>
       </c>
       <c r="E1583" t="s">
         <v>126</v>
@@ -27256,8 +27256,8 @@
       <c r="C1584" t="s">
         <v>52</v>
       </c>
-      <c r="D1584" t="s">
-        <v>126</v>
+      <c r="D1584" t="n" s="1">
+        <v>17218.25</v>
       </c>
       <c r="E1584" t="s">
         <v>126</v>
@@ -27273,8 +27273,8 @@
       <c r="C1585" t="s">
         <v>53</v>
       </c>
-      <c r="D1585" t="s">
-        <v>126</v>
+      <c r="D1585" t="n" s="1">
+        <v>17335.5</v>
       </c>
       <c r="E1585" t="s">
         <v>126</v>
@@ -27290,8 +27290,8 @@
       <c r="C1586" t="s">
         <v>54</v>
       </c>
-      <c r="D1586" t="s">
-        <v>126</v>
+      <c r="D1586" t="n" s="1">
+        <v>17446.75</v>
       </c>
       <c r="E1586" t="s">
         <v>126</v>
@@ -27307,8 +27307,8 @@
       <c r="C1587" t="s">
         <v>55</v>
       </c>
-      <c r="D1587" t="s">
-        <v>126</v>
+      <c r="D1587" t="n" s="1">
+        <v>17571.75</v>
       </c>
       <c r="E1587" t="s">
         <v>126</v>
@@ -27324,8 +27324,8 @@
       <c r="C1588" t="s">
         <v>56</v>
       </c>
-      <c r="D1588" t="s">
-        <v>126</v>
+      <c r="D1588" t="n" s="1">
+        <v>17543.5</v>
       </c>
       <c r="E1588" t="s">
         <v>126</v>
@@ -27341,8 +27341,8 @@
       <c r="C1589" t="s">
         <v>57</v>
       </c>
-      <c r="D1589" t="s">
-        <v>126</v>
+      <c r="D1589" t="n" s="1">
+        <v>17668.5</v>
       </c>
       <c r="E1589" t="s">
         <v>126</v>
@@ -27358,8 +27358,8 @@
       <c r="C1590" t="s">
         <v>58</v>
       </c>
-      <c r="D1590" t="s">
-        <v>126</v>
+      <c r="D1590" t="n" s="1">
+        <v>17768.0</v>
       </c>
       <c r="E1590" t="s">
         <v>126</v>
@@ -27375,8 +27375,8 @@
       <c r="C1591" t="s">
         <v>59</v>
       </c>
-      <c r="D1591" t="s">
-        <v>126</v>
+      <c r="D1591" t="n" s="1">
+        <v>17799.25</v>
       </c>
       <c r="E1591" t="s">
         <v>126</v>
@@ -27392,8 +27392,8 @@
       <c r="C1592" t="s">
         <v>60</v>
       </c>
-      <c r="D1592" t="s">
-        <v>126</v>
+      <c r="D1592" t="n" s="1">
+        <v>17825.75</v>
       </c>
       <c r="E1592" t="s">
         <v>126</v>
@@ -27409,8 +27409,8 @@
       <c r="C1593" t="s">
         <v>61</v>
       </c>
-      <c r="D1593" t="s">
-        <v>126</v>
+      <c r="D1593" t="n" s="1">
+        <v>17935.25</v>
       </c>
       <c r="E1593" t="s">
         <v>126</v>
@@ -27426,8 +27426,8 @@
       <c r="C1594" t="s">
         <v>62</v>
       </c>
-      <c r="D1594" t="s">
-        <v>126</v>
+      <c r="D1594" t="n" s="1">
+        <v>17936.5</v>
       </c>
       <c r="E1594" t="s">
         <v>126</v>
@@ -27443,8 +27443,8 @@
       <c r="C1595" t="s">
         <v>63</v>
       </c>
-      <c r="D1595" t="s">
-        <v>126</v>
+      <c r="D1595" t="n" s="1">
+        <v>17875.0</v>
       </c>
       <c r="E1595" t="s">
         <v>126</v>
@@ -27460,8 +27460,8 @@
       <c r="C1596" t="s">
         <v>64</v>
       </c>
-      <c r="D1596" t="s">
-        <v>126</v>
+      <c r="D1596" t="n" s="1">
+        <v>17929.25</v>
       </c>
       <c r="E1596" t="s">
         <v>126</v>
@@ -27477,8 +27477,8 @@
       <c r="C1597" t="s">
         <v>65</v>
       </c>
-      <c r="D1597" t="s">
-        <v>126</v>
+      <c r="D1597" t="n" s="1">
+        <v>17882.0</v>
       </c>
       <c r="E1597" t="s">
         <v>126</v>
@@ -27494,8 +27494,8 @@
       <c r="C1598" t="s">
         <v>66</v>
       </c>
-      <c r="D1598" t="s">
-        <v>126</v>
+      <c r="D1598" t="n" s="1">
+        <v>17795.5</v>
       </c>
       <c r="E1598" t="s">
         <v>126</v>
@@ -27511,8 +27511,8 @@
       <c r="C1599" t="s">
         <v>67</v>
       </c>
-      <c r="D1599" t="s">
-        <v>126</v>
+      <c r="D1599" t="n" s="1">
+        <v>17805.25</v>
       </c>
       <c r="E1599" t="s">
         <v>126</v>
@@ -27528,8 +27528,8 @@
       <c r="C1600" t="s">
         <v>68</v>
       </c>
-      <c r="D1600" t="s">
-        <v>126</v>
+      <c r="D1600" t="n" s="1">
+        <v>17630.0</v>
       </c>
       <c r="E1600" t="s">
         <v>126</v>
@@ -27545,8 +27545,8 @@
       <c r="C1601" t="s">
         <v>69</v>
       </c>
-      <c r="D1601" t="s">
-        <v>126</v>
+      <c r="D1601" t="n" s="1">
+        <v>17429.25</v>
       </c>
       <c r="E1601" t="s">
         <v>126</v>
@@ -27562,8 +27562,8 @@
       <c r="C1602" t="s">
         <v>70</v>
       </c>
-      <c r="D1602" t="s">
-        <v>126</v>
+      <c r="D1602" t="n" s="1">
+        <v>17330.25</v>
       </c>
       <c r="E1602" t="s">
         <v>126</v>
@@ -27579,8 +27579,8 @@
       <c r="C1603" t="s">
         <v>71</v>
       </c>
-      <c r="D1603" t="s">
-        <v>126</v>
+      <c r="D1603" t="n" s="1">
+        <v>17457.25</v>
       </c>
       <c r="E1603" t="s">
         <v>126</v>
@@ -27596,8 +27596,8 @@
       <c r="C1604" t="s">
         <v>72</v>
       </c>
-      <c r="D1604" t="s">
-        <v>126</v>
+      <c r="D1604" t="n" s="1">
+        <v>17361.0</v>
       </c>
       <c r="E1604" t="s">
         <v>126</v>
@@ -27613,8 +27613,8 @@
       <c r="C1605" t="s">
         <v>73</v>
       </c>
-      <c r="D1605" t="s">
-        <v>126</v>
+      <c r="D1605" t="n" s="1">
+        <v>17193.25</v>
       </c>
       <c r="E1605" t="s">
         <v>126</v>
@@ -27630,8 +27630,8 @@
       <c r="C1606" t="s">
         <v>74</v>
       </c>
-      <c r="D1606" t="s">
-        <v>126</v>
+      <c r="D1606" t="n" s="1">
+        <v>17113.25</v>
       </c>
       <c r="E1606" t="s">
         <v>126</v>
@@ -27647,8 +27647,8 @@
       <c r="C1607" t="s">
         <v>75</v>
       </c>
-      <c r="D1607" t="s">
-        <v>126</v>
+      <c r="D1607" t="n" s="1">
+        <v>17206.5</v>
       </c>
       <c r="E1607" t="s">
         <v>126</v>
@@ -27664,8 +27664,8 @@
       <c r="C1608" t="s">
         <v>76</v>
       </c>
-      <c r="D1608" t="s">
-        <v>126</v>
+      <c r="D1608" t="n" s="1">
+        <v>17157.25</v>
       </c>
       <c r="E1608" t="s">
         <v>126</v>
@@ -27681,8 +27681,8 @@
       <c r="C1609" t="s">
         <v>77</v>
       </c>
-      <c r="D1609" t="s">
-        <v>126</v>
+      <c r="D1609" t="n" s="1">
+        <v>17134.25</v>
       </c>
       <c r="E1609" t="s">
         <v>126</v>
@@ -27698,8 +27698,8 @@
       <c r="C1610" t="s">
         <v>78</v>
       </c>
-      <c r="D1610" t="s">
-        <v>126</v>
+      <c r="D1610" t="n" s="1">
+        <v>17073.75</v>
       </c>
       <c r="E1610" t="s">
         <v>126</v>
@@ -27715,8 +27715,8 @@
       <c r="C1611" t="s">
         <v>79</v>
       </c>
-      <c r="D1611" t="s">
-        <v>126</v>
+      <c r="D1611" t="n" s="1">
+        <v>17211.0</v>
       </c>
       <c r="E1611" t="s">
         <v>126</v>
@@ -27732,8 +27732,8 @@
       <c r="C1612" t="s">
         <v>80</v>
       </c>
-      <c r="D1612" t="s">
-        <v>126</v>
+      <c r="D1612" t="n" s="1">
+        <v>17223.25</v>
       </c>
       <c r="E1612" t="s">
         <v>126</v>
@@ -27749,8 +27749,8 @@
       <c r="C1613" t="s">
         <v>81</v>
       </c>
-      <c r="D1613" t="s">
-        <v>126</v>
+      <c r="D1613" t="n" s="1">
+        <v>17304.25</v>
       </c>
       <c r="E1613" t="s">
         <v>126</v>
@@ -27766,8 +27766,8 @@
       <c r="C1614" t="s">
         <v>82</v>
       </c>
-      <c r="D1614" t="s">
-        <v>126</v>
+      <c r="D1614" t="n" s="1">
+        <v>17449.25</v>
       </c>
       <c r="E1614" t="s">
         <v>126</v>
@@ -27783,8 +27783,8 @@
       <c r="C1615" t="s">
         <v>83</v>
       </c>
-      <c r="D1615" t="s">
-        <v>126</v>
+      <c r="D1615" t="n" s="1">
+        <v>17589.25</v>
       </c>
       <c r="E1615" t="s">
         <v>126</v>
@@ -27800,8 +27800,8 @@
       <c r="C1616" t="s">
         <v>84</v>
       </c>
-      <c r="D1616" t="s">
-        <v>126</v>
+      <c r="D1616" t="n" s="1">
+        <v>17701.75</v>
       </c>
       <c r="E1616" t="s">
         <v>126</v>
@@ -27817,8 +27817,8 @@
       <c r="C1617" t="s">
         <v>85</v>
       </c>
-      <c r="D1617" t="s">
-        <v>126</v>
+      <c r="D1617" t="n" s="1">
+        <v>17764.0</v>
       </c>
       <c r="E1617" t="s">
         <v>126</v>
@@ -27834,8 +27834,8 @@
       <c r="C1618" t="s">
         <v>86</v>
       </c>
-      <c r="D1618" t="s">
-        <v>126</v>
+      <c r="D1618" t="n" s="1">
+        <v>17738.0</v>
       </c>
       <c r="E1618" t="s">
         <v>126</v>
@@ -27851,8 +27851,8 @@
       <c r="C1619" t="s">
         <v>87</v>
       </c>
-      <c r="D1619" t="s">
-        <v>126</v>
+      <c r="D1619" t="n" s="1">
+        <v>17644.5</v>
       </c>
       <c r="E1619" t="s">
         <v>126</v>
@@ -27868,8 +27868,8 @@
       <c r="C1620" t="s">
         <v>88</v>
       </c>
-      <c r="D1620" t="s">
-        <v>126</v>
+      <c r="D1620" t="n" s="1">
+        <v>17581.0</v>
       </c>
       <c r="E1620" t="s">
         <v>126</v>
@@ -27885,8 +27885,8 @@
       <c r="C1621" t="s">
         <v>89</v>
       </c>
-      <c r="D1621" t="s">
-        <v>126</v>
+      <c r="D1621" t="n" s="1">
+        <v>17549.25</v>
       </c>
       <c r="E1621" t="s">
         <v>126</v>
@@ -27902,8 +27902,8 @@
       <c r="C1622" t="s">
         <v>90</v>
       </c>
-      <c r="D1622" t="s">
-        <v>126</v>
+      <c r="D1622" t="n" s="1">
+        <v>17544.75</v>
       </c>
       <c r="E1622" t="s">
         <v>126</v>
@@ -27919,8 +27919,8 @@
       <c r="C1623" t="s">
         <v>91</v>
       </c>
-      <c r="D1623" t="s">
-        <v>126</v>
+      <c r="D1623" t="n" s="1">
+        <v>17350.25</v>
       </c>
       <c r="E1623" t="s">
         <v>126</v>
@@ -27936,8 +27936,8 @@
       <c r="C1624" t="s">
         <v>92</v>
       </c>
-      <c r="D1624" t="s">
-        <v>126</v>
+      <c r="D1624" t="n" s="1">
+        <v>17189.0</v>
       </c>
       <c r="E1624" t="s">
         <v>126</v>
@@ -27953,8 +27953,8 @@
       <c r="C1625" t="s">
         <v>93</v>
       </c>
-      <c r="D1625" t="s">
-        <v>126</v>
+      <c r="D1625" t="n" s="1">
+        <v>16986.5</v>
       </c>
       <c r="E1625" t="s">
         <v>126</v>
@@ -27970,8 +27970,8 @@
       <c r="C1626" t="s">
         <v>94</v>
       </c>
-      <c r="D1626" t="s">
-        <v>126</v>
+      <c r="D1626" t="n" s="1">
+        <v>16841.25</v>
       </c>
       <c r="E1626" t="s">
         <v>126</v>
@@ -27987,8 +27987,8 @@
       <c r="C1627" t="s">
         <v>95</v>
       </c>
-      <c r="D1627" t="s">
-        <v>126</v>
+      <c r="D1627" t="n" s="1">
+        <v>16580.5</v>
       </c>
       <c r="E1627" t="s">
         <v>126</v>
@@ -28004,8 +28004,8 @@
       <c r="C1628" t="s">
         <v>96</v>
       </c>
-      <c r="D1628" t="s">
-        <v>126</v>
+      <c r="D1628" t="n" s="1">
+        <v>16234.25</v>
       </c>
       <c r="E1628" t="s">
         <v>126</v>
@@ -28021,8 +28021,8 @@
       <c r="C1629" t="s">
         <v>97</v>
       </c>
-      <c r="D1629" t="s">
-        <v>126</v>
+      <c r="D1629" t="n" s="1">
+        <v>15951.0</v>
       </c>
       <c r="E1629" t="s">
         <v>126</v>
@@ -28038,8 +28038,8 @@
       <c r="C1630" t="s">
         <v>98</v>
       </c>
-      <c r="D1630" t="s">
-        <v>126</v>
+      <c r="D1630" t="n" s="1">
+        <v>15829.5</v>
       </c>
       <c r="E1630" t="s">
         <v>126</v>
@@ -28055,8 +28055,8 @@
       <c r="C1631" t="s">
         <v>99</v>
       </c>
-      <c r="D1631" t="s">
-        <v>126</v>
+      <c r="D1631" t="n" s="1">
+        <v>15604.5</v>
       </c>
       <c r="E1631" t="s">
         <v>126</v>
@@ -28072,8 +28072,8 @@
       <c r="C1632" t="s">
         <v>100</v>
       </c>
-      <c r="D1632" t="s">
-        <v>126</v>
+      <c r="D1632" t="n" s="1">
+        <v>15544.0</v>
       </c>
       <c r="E1632" t="s">
         <v>126</v>
@@ -28089,8 +28089,8 @@
       <c r="C1633" t="s">
         <v>101</v>
       </c>
-      <c r="D1633" t="s">
-        <v>126</v>
+      <c r="D1633" t="n" s="1">
+        <v>15376.25</v>
       </c>
       <c r="E1633" t="s">
         <v>126</v>
@@ -28106,8 +28106,8 @@
       <c r="C1634" t="s">
         <v>102</v>
       </c>
-      <c r="D1634" t="s">
-        <v>126</v>
+      <c r="D1634" t="n" s="1">
+        <v>15217.75</v>
       </c>
       <c r="E1634" t="s">
         <v>126</v>
@@ -28123,8 +28123,8 @@
       <c r="C1635" t="s">
         <v>103</v>
       </c>
-      <c r="D1635" t="s">
-        <v>126</v>
+      <c r="D1635" t="n" s="1">
+        <v>15100.5</v>
       </c>
       <c r="E1635" t="s">
         <v>126</v>
@@ -28140,8 +28140,8 @@
       <c r="C1636" t="s">
         <v>104</v>
       </c>
-      <c r="D1636" t="s">
-        <v>126</v>
+      <c r="D1636" t="n" s="1">
+        <v>14986.0</v>
       </c>
       <c r="E1636" t="s">
         <v>126</v>
@@ -28157,8 +28157,8 @@
       <c r="C1637" t="s">
         <v>105</v>
       </c>
-      <c r="D1637" t="s">
-        <v>126</v>
+      <c r="D1637" t="n" s="1">
+        <v>14723.75</v>
       </c>
       <c r="E1637" t="s">
         <v>126</v>
@@ -28174,8 +28174,8 @@
       <c r="C1638" t="s">
         <v>106</v>
       </c>
-      <c r="D1638" t="s">
-        <v>126</v>
+      <c r="D1638" t="n" s="1">
+        <v>14584.0</v>
       </c>
       <c r="E1638" t="s">
         <v>126</v>
@@ -28191,8 +28191,8 @@
       <c r="C1639" t="s">
         <v>107</v>
       </c>
-      <c r="D1639" t="s">
-        <v>126</v>
+      <c r="D1639" t="n" s="1">
+        <v>14400.25</v>
       </c>
       <c r="E1639" t="s">
         <v>126</v>
@@ -28208,8 +28208,8 @@
       <c r="C1640" t="s">
         <v>108</v>
       </c>
-      <c r="D1640" t="s">
-        <v>126</v>
+      <c r="D1640" t="n" s="1">
+        <v>14269.5</v>
       </c>
       <c r="E1640" t="s">
         <v>126</v>
@@ -28225,8 +28225,8 @@
       <c r="C1641" t="s">
         <v>109</v>
       </c>
-      <c r="D1641" t="s">
-        <v>126</v>
+      <c r="D1641" t="n" s="1">
+        <v>14152.0</v>
       </c>
       <c r="E1641" t="s">
         <v>126</v>
@@ -28242,8 +28242,8 @@
       <c r="C1642" t="s">
         <v>14</v>
       </c>
-      <c r="D1642" t="s">
-        <v>126</v>
+      <c r="D1642" t="n" s="1">
+        <v>13945.0</v>
       </c>
       <c r="E1642" t="s">
         <v>126</v>
